--- a/Tel_fija_N.xlsx
+++ b/Tel_fija_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC430D71-27CF-4888-9624-10FD555E3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D7CE0-7037-4537-A876-5D4B1770B009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -72,6 +72,42 @@
   </si>
   <si>
     <t>Líneas c/100 habitantes</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
   </si>
 </sst>
 </file>
@@ -740,8 +776,8 @@
       <c r="B6" s="24">
         <v>2024</v>
       </c>
-      <c r="C6" s="25">
-        <v>3</v>
+      <c r="C6" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -764,8 +800,8 @@
       <c r="B7" s="26">
         <v>2024</v>
       </c>
-      <c r="C7" s="27">
-        <v>2</v>
+      <c r="C7" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -789,8 +825,8 @@
       <c r="B8" s="28">
         <v>2024</v>
       </c>
-      <c r="C8" s="29">
-        <v>1</v>
+      <c r="C8" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -814,8 +850,8 @@
       <c r="B9" s="26">
         <v>2023</v>
       </c>
-      <c r="C9" s="27">
-        <v>12</v>
+      <c r="C9" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -839,8 +875,8 @@
       <c r="B10" s="30">
         <v>2023</v>
       </c>
-      <c r="C10" s="31">
-        <v>11</v>
+      <c r="C10" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -864,8 +900,8 @@
       <c r="B11" s="26">
         <v>2023</v>
       </c>
-      <c r="C11" s="27">
-        <v>10</v>
+      <c r="C11" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -889,8 +925,8 @@
       <c r="B12" s="30">
         <v>2023</v>
       </c>
-      <c r="C12" s="31">
-        <v>9</v>
+      <c r="C12" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -914,8 +950,8 @@
       <c r="B13" s="26">
         <v>2023</v>
       </c>
-      <c r="C13" s="27">
-        <v>8</v>
+      <c r="C13" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -939,8 +975,8 @@
       <c r="B14" s="30">
         <v>2023</v>
       </c>
-      <c r="C14" s="31">
-        <v>7</v>
+      <c r="C14" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -964,8 +1000,8 @@
       <c r="B15" s="26">
         <v>2023</v>
       </c>
-      <c r="C15" s="27">
-        <v>6</v>
+      <c r="C15" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -989,8 +1025,8 @@
       <c r="B16" s="30">
         <v>2023</v>
       </c>
-      <c r="C16" s="31">
-        <v>5</v>
+      <c r="C16" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1014,8 +1050,8 @@
       <c r="B17" s="26">
         <v>2023</v>
       </c>
-      <c r="C17" s="27">
-        <v>4</v>
+      <c r="C17" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1039,8 +1075,8 @@
       <c r="B18" s="30">
         <v>2023</v>
       </c>
-      <c r="C18" s="31">
-        <v>3</v>
+      <c r="C18" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1064,8 +1100,8 @@
       <c r="B19" s="26">
         <v>2023</v>
       </c>
-      <c r="C19" s="27">
-        <v>2</v>
+      <c r="C19" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1089,8 +1125,8 @@
       <c r="B20" s="28">
         <v>2023</v>
       </c>
-      <c r="C20" s="29">
-        <v>1</v>
+      <c r="C20" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1114,8 +1150,8 @@
       <c r="B21" s="26">
         <v>2022</v>
       </c>
-      <c r="C21" s="27">
-        <v>12</v>
+      <c r="C21" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1139,8 +1175,8 @@
       <c r="B22" s="30">
         <v>2022</v>
       </c>
-      <c r="C22" s="31">
-        <v>11</v>
+      <c r="C22" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1164,8 +1200,8 @@
       <c r="B23" s="26">
         <v>2022</v>
       </c>
-      <c r="C23" s="27">
-        <v>10</v>
+      <c r="C23" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1189,8 +1225,8 @@
       <c r="B24" s="30">
         <v>2022</v>
       </c>
-      <c r="C24" s="31">
-        <v>9</v>
+      <c r="C24" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1214,8 +1250,8 @@
       <c r="B25" s="26">
         <v>2022</v>
       </c>
-      <c r="C25" s="27">
-        <v>8</v>
+      <c r="C25" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1239,8 +1275,8 @@
       <c r="B26" s="30">
         <v>2022</v>
       </c>
-      <c r="C26" s="31">
-        <v>7</v>
+      <c r="C26" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1264,8 +1300,8 @@
       <c r="B27" s="26">
         <v>2022</v>
       </c>
-      <c r="C27" s="27">
-        <v>6</v>
+      <c r="C27" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1289,8 +1325,8 @@
       <c r="B28" s="30">
         <v>2022</v>
       </c>
-      <c r="C28" s="31">
-        <v>5</v>
+      <c r="C28" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1314,8 +1350,8 @@
       <c r="B29" s="26">
         <v>2022</v>
       </c>
-      <c r="C29" s="27">
-        <v>4</v>
+      <c r="C29" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1339,8 +1375,8 @@
       <c r="B30" s="30">
         <v>2022</v>
       </c>
-      <c r="C30" s="31">
-        <v>3</v>
+      <c r="C30" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1364,8 +1400,8 @@
       <c r="B31" s="26">
         <v>2022</v>
       </c>
-      <c r="C31" s="27">
-        <v>2</v>
+      <c r="C31" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D31" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1389,8 +1425,8 @@
       <c r="B32" s="28">
         <v>2022</v>
       </c>
-      <c r="C32" s="29">
-        <v>1</v>
+      <c r="C32" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="D32" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1414,8 +1450,8 @@
       <c r="B33" s="26">
         <v>2021</v>
       </c>
-      <c r="C33" s="27">
-        <v>12</v>
+      <c r="C33" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1439,8 +1475,8 @@
       <c r="B34" s="30">
         <v>2021</v>
       </c>
-      <c r="C34" s="31">
-        <v>11</v>
+      <c r="C34" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1464,8 +1500,8 @@
       <c r="B35" s="26">
         <v>2021</v>
       </c>
-      <c r="C35" s="27">
-        <v>10</v>
+      <c r="C35" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1489,8 +1525,8 @@
       <c r="B36" s="30">
         <v>2021</v>
       </c>
-      <c r="C36" s="31">
-        <v>9</v>
+      <c r="C36" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1514,8 +1550,8 @@
       <c r="B37" s="26">
         <v>2021</v>
       </c>
-      <c r="C37" s="27">
-        <v>8</v>
+      <c r="C37" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1539,8 +1575,8 @@
       <c r="B38" s="30">
         <v>2021</v>
       </c>
-      <c r="C38" s="31">
-        <v>7</v>
+      <c r="C38" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1564,8 +1600,8 @@
       <c r="B39" s="26">
         <v>2021</v>
       </c>
-      <c r="C39" s="27">
-        <v>6</v>
+      <c r="C39" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D39" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1589,8 +1625,8 @@
       <c r="B40" s="30">
         <v>2021</v>
       </c>
-      <c r="C40" s="31">
-        <v>5</v>
+      <c r="C40" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1614,8 +1650,8 @@
       <c r="B41" s="26">
         <v>2021</v>
       </c>
-      <c r="C41" s="27">
-        <v>4</v>
+      <c r="C41" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1639,8 +1675,8 @@
       <c r="B42" s="30">
         <v>2021</v>
       </c>
-      <c r="C42" s="31">
-        <v>3</v>
+      <c r="C42" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1664,8 +1700,8 @@
       <c r="B43" s="26">
         <v>2021</v>
       </c>
-      <c r="C43" s="27">
-        <v>2</v>
+      <c r="C43" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D43" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1689,8 +1725,8 @@
       <c r="B44" s="28">
         <v>2021</v>
       </c>
-      <c r="C44" s="29">
-        <v>1</v>
+      <c r="C44" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1714,8 +1750,8 @@
       <c r="B45" s="26">
         <v>2020</v>
       </c>
-      <c r="C45" s="27">
-        <v>12</v>
+      <c r="C45" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D45" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1739,8 +1775,8 @@
       <c r="B46" s="30">
         <v>2020</v>
       </c>
-      <c r="C46" s="31">
-        <v>11</v>
+      <c r="C46" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D46" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1764,8 +1800,8 @@
       <c r="B47" s="26">
         <v>2020</v>
       </c>
-      <c r="C47" s="27">
-        <v>10</v>
+      <c r="C47" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D47" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1789,8 +1825,8 @@
       <c r="B48" s="30">
         <v>2020</v>
       </c>
-      <c r="C48" s="31">
-        <v>9</v>
+      <c r="C48" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D48" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1814,8 +1850,8 @@
       <c r="B49" s="26">
         <v>2020</v>
       </c>
-      <c r="C49" s="27">
-        <v>8</v>
+      <c r="C49" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D49" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1839,8 +1875,8 @@
       <c r="B50" s="30">
         <v>2020</v>
       </c>
-      <c r="C50" s="31">
-        <v>7</v>
+      <c r="C50" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1864,8 +1900,8 @@
       <c r="B51" s="26">
         <v>2020</v>
       </c>
-      <c r="C51" s="27">
-        <v>6</v>
+      <c r="C51" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D51" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1889,8 +1925,8 @@
       <c r="B52" s="30">
         <v>2020</v>
       </c>
-      <c r="C52" s="31">
-        <v>5</v>
+      <c r="C52" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1914,8 +1950,8 @@
       <c r="B53" s="26">
         <v>2020</v>
       </c>
-      <c r="C53" s="27">
-        <v>4</v>
+      <c r="C53" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D53" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1939,8 +1975,8 @@
       <c r="B54" s="30">
         <v>2020</v>
       </c>
-      <c r="C54" s="31">
-        <v>3</v>
+      <c r="C54" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1964,8 +2000,8 @@
       <c r="B55" s="26">
         <v>2020</v>
       </c>
-      <c r="C55" s="27">
-        <v>2</v>
+      <c r="C55" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D55" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1989,8 +2025,8 @@
       <c r="B56" s="28">
         <v>2020</v>
       </c>
-      <c r="C56" s="29">
-        <v>1</v>
+      <c r="C56" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="D56" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2014,8 +2050,8 @@
       <c r="B57" s="26">
         <v>2019</v>
       </c>
-      <c r="C57" s="27">
-        <v>12</v>
+      <c r="C57" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2039,8 +2075,8 @@
       <c r="B58" s="30">
         <v>2019</v>
       </c>
-      <c r="C58" s="31">
-        <v>11</v>
+      <c r="C58" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D58" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2064,8 +2100,8 @@
       <c r="B59" s="26">
         <v>2019</v>
       </c>
-      <c r="C59" s="27">
-        <v>10</v>
+      <c r="C59" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2089,8 +2125,8 @@
       <c r="B60" s="30">
         <v>2019</v>
       </c>
-      <c r="C60" s="31">
-        <v>9</v>
+      <c r="C60" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D60" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2114,8 +2150,8 @@
       <c r="B61" s="26">
         <v>2019</v>
       </c>
-      <c r="C61" s="27">
-        <v>8</v>
+      <c r="C61" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2139,8 +2175,8 @@
       <c r="B62" s="30">
         <v>2019</v>
       </c>
-      <c r="C62" s="31">
-        <v>7</v>
+      <c r="C62" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="D62" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2164,8 +2200,8 @@
       <c r="B63" s="26">
         <v>2019</v>
       </c>
-      <c r="C63" s="27">
-        <v>6</v>
+      <c r="C63" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D63" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2189,8 +2225,8 @@
       <c r="B64" s="30">
         <v>2019</v>
       </c>
-      <c r="C64" s="31">
-        <v>5</v>
+      <c r="C64" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2214,8 +2250,8 @@
       <c r="B65" s="26">
         <v>2019</v>
       </c>
-      <c r="C65" s="27">
-        <v>4</v>
+      <c r="C65" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D65" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2239,8 +2275,8 @@
       <c r="B66" s="30">
         <v>2019</v>
       </c>
-      <c r="C66" s="31">
-        <v>3</v>
+      <c r="C66" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2264,8 +2300,8 @@
       <c r="B67" s="26">
         <v>2019</v>
       </c>
-      <c r="C67" s="27">
-        <v>2</v>
+      <c r="C67" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D67" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2289,8 +2325,8 @@
       <c r="B68" s="28">
         <v>2019</v>
       </c>
-      <c r="C68" s="29">
-        <v>1</v>
+      <c r="C68" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="D68" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2314,8 +2350,8 @@
       <c r="B69" s="26">
         <v>2018</v>
       </c>
-      <c r="C69" s="27">
-        <v>12</v>
+      <c r="C69" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D69" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2339,8 +2375,8 @@
       <c r="B70" s="30">
         <v>2018</v>
       </c>
-      <c r="C70" s="31">
-        <v>11</v>
+      <c r="C70" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D70" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2364,8 +2400,8 @@
       <c r="B71" s="26">
         <v>2018</v>
       </c>
-      <c r="C71" s="27">
-        <v>10</v>
+      <c r="C71" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="D71" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2389,8 +2425,8 @@
       <c r="B72" s="30">
         <v>2018</v>
       </c>
-      <c r="C72" s="31">
-        <v>9</v>
+      <c r="C72" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="D72" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2414,8 +2450,8 @@
       <c r="B73" s="26">
         <v>2018</v>
       </c>
-      <c r="C73" s="27">
-        <v>8</v>
+      <c r="C73" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="D73" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2439,8 +2475,8 @@
       <c r="B74" s="30">
         <v>2018</v>
       </c>
-      <c r="C74" s="31">
-        <v>7</v>
+      <c r="C74" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="D74" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2464,8 +2500,8 @@
       <c r="B75" s="26">
         <v>2018</v>
       </c>
-      <c r="C75" s="27">
-        <v>6</v>
+      <c r="C75" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="D75" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2489,8 +2525,8 @@
       <c r="B76" s="30">
         <v>2018</v>
       </c>
-      <c r="C76" s="31">
-        <v>5</v>
+      <c r="C76" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2514,8 +2550,8 @@
       <c r="B77" s="26">
         <v>2018</v>
       </c>
-      <c r="C77" s="27">
-        <v>4</v>
+      <c r="C77" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D77" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2539,8 +2575,8 @@
       <c r="B78" s="30">
         <v>2018</v>
       </c>
-      <c r="C78" s="31">
-        <v>3</v>
+      <c r="C78" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2564,8 +2600,8 @@
       <c r="B79" s="26">
         <v>2018</v>
       </c>
-      <c r="C79" s="27">
-        <v>2</v>
+      <c r="C79" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="D79" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2589,8 +2625,8 @@
       <c r="B80" s="30">
         <v>2018</v>
       </c>
-      <c r="C80" s="31">
-        <v>1</v>
+      <c r="C80" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>

--- a/Tel_fija_N.xlsx
+++ b/Tel_fija_N.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D7CE0-7037-4537-A876-5D4B1770B009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CA1375-1250-449F-9727-942969AD608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_40.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_40.1'!$I$6:$L$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_40.1'!$K$6:$N$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Servicio Fijo</t>
   </si>
   <si>
-    <t>Líneas en el servicio fijo de telefonía</t>
-  </si>
-  <si>
     <t>Fuente: IFT. Banco de Información de Telecomunicaciones (BIT). Información Estadística Trimestral. En: www.ift.org.mx.</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
-    <t>Líneas c/100 habitantes</t>
   </si>
   <si>
     <t>Mar.</t>
@@ -109,6 +100,24 @@
   <si>
     <t>Abr.</t>
   </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Larga distancia internacional</t>
+  </si>
+  <si>
+    <t>Líneas p/c 100 hogares</t>
+  </si>
+  <si>
+    <t>Tráfico de minutos (Millones)</t>
+  </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
+  </si>
+  <si>
+    <t>Servicio fijo de telefonía</t>
+  </si>
 </sst>
 </file>
 
@@ -118,40 +127,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,13 +170,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -265,12 +278,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -339,10 +367,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,9 +384,15 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -376,7 +416,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -423,7 +463,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -460,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H80" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="B5:H80" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:J80" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="B5:J80" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -472,16 +512,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:F80">
     <sortCondition descending="1" ref="B5:B80"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1EE79BA0-D723-44A0-A44E-CBC183A24522}" name="Mes" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="4">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1EE79BA0-D723-44A0-A44E-CBC183A24522}" name="Mes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Residencial" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="No Residencial" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="Sin especificar" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{9B94971D-FE26-4176-BA4D-AD61EF93C988}" name="Líneas c/100 habitantes" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Residencial" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="No Residencial" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="Sin especificar" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{200EA92D-7817-4883-B1EE-C810420DDAB7}" name="Local" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{1707DD23-CE6F-4ABD-922C-589CC592A854}" name="Larga distancia internacional" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9B94971D-FE26-4176-BA4D-AD61EF93C988}" name="Líneas p/c 100 hogares" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,7 +532,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,28 +540,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -528,14 +570,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -710,51 +752,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I83"/>
+  <dimension ref="B2:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>0</v>
@@ -768,16 +815,22 @@
       <c r="G5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="24">
         <v>2024</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -793,15 +846,21 @@
         <v>290598</v>
       </c>
       <c r="H6" s="10">
+        <v>1104.5988763299999</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1104.5988763299999</v>
+      </c>
+      <c r="J6" s="10">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>2024</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -817,16 +876,22 @@
         <v>289474</v>
       </c>
       <c r="H7" s="13">
+        <v>1107.1072789500001</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1107.1072789500001</v>
+      </c>
+      <c r="J7" s="13">
         <v>76</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="28">
         <v>2024</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -842,16 +907,22 @@
         <v>291610</v>
       </c>
       <c r="H8" s="19">
+        <v>1159.1348775199999</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1159.1348775199999</v>
+      </c>
+      <c r="J8" s="19">
         <v>75</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>2023</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -867,16 +938,22 @@
         <v>1273130</v>
       </c>
       <c r="H9" s="13">
+        <v>882.90931057</v>
+      </c>
+      <c r="I9" s="13">
+        <v>882.90931057</v>
+      </c>
+      <c r="J9" s="13">
         <v>75</v>
       </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
         <v>2023</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -892,16 +969,22 @@
         <v>1258180</v>
       </c>
       <c r="H10" s="16">
+        <v>923.24500971999998</v>
+      </c>
+      <c r="I10" s="16">
+        <v>923.24500971999998</v>
+      </c>
+      <c r="J10" s="16">
         <v>74</v>
       </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>2023</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -917,16 +1000,22 @@
         <v>1253647</v>
       </c>
       <c r="H11" s="13">
+        <v>963.92936169000006</v>
+      </c>
+      <c r="I11" s="13">
+        <v>963.92936169000006</v>
+      </c>
+      <c r="J11" s="13">
         <v>74</v>
       </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="30">
         <v>2023</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -942,16 +1031,22 @@
         <v>209015</v>
       </c>
       <c r="H12" s="16">
+        <v>1103.56765348</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1103.56765348</v>
+      </c>
+      <c r="J12" s="16">
         <v>71</v>
       </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>2023</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -967,16 +1062,22 @@
         <v>170377</v>
       </c>
       <c r="H13" s="13">
+        <v>1120.4409134699999</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1120.4409134699999</v>
+      </c>
+      <c r="J13" s="13">
         <v>71</v>
       </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>2023</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -992,16 +1093,22 @@
         <v>169471</v>
       </c>
       <c r="H14" s="16">
+        <v>1124.62540397</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1124.62540397</v>
+      </c>
+      <c r="J14" s="16">
         <v>72</v>
       </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>2023</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1017,16 +1124,22 @@
         <v>860718</v>
       </c>
       <c r="H15" s="13">
+        <v>1315.4181854299998</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1315.4181854299998</v>
+      </c>
+      <c r="J15" s="13">
         <v>72</v>
       </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <v>2023</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1042,16 +1155,22 @@
         <v>856333</v>
       </c>
       <c r="H16" s="16">
+        <v>1320.8229213400002</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1320.8229213400002</v>
+      </c>
+      <c r="J16" s="16">
         <v>72</v>
       </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>2023</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1067,16 +1186,22 @@
         <v>852503</v>
       </c>
       <c r="H17" s="13">
+        <v>1268.35103316</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1268.35103316</v>
+      </c>
+      <c r="J17" s="13">
         <v>72</v>
       </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <v>2023</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1092,16 +1217,22 @@
         <v>345303</v>
       </c>
       <c r="H18" s="16">
+        <v>1300.0983634000002</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1300.0983634000002</v>
+      </c>
+      <c r="J18" s="16">
         <v>72</v>
       </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="26">
         <v>2023</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1117,16 +1248,22 @@
         <v>352473</v>
       </c>
       <c r="H19" s="13">
+        <v>1257.1649982500001</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1257.1649982500001</v>
+      </c>
+      <c r="J19" s="13">
         <v>71</v>
       </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="28">
         <v>2023</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1142,16 +1279,22 @@
         <v>347746</v>
       </c>
       <c r="H20" s="19">
+        <v>1352.7509260899999</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1352.7509260899999</v>
+      </c>
+      <c r="J20" s="19">
         <v>71</v>
       </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>2022</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1167,16 +1310,22 @@
         <v>827446</v>
       </c>
       <c r="H21" s="13">
+        <v>1297.0491396299999</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1297.0491396299999</v>
+      </c>
+      <c r="J21" s="13">
         <v>70</v>
       </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>2022</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1192,16 +1341,22 @@
         <v>823639</v>
       </c>
       <c r="H22" s="16">
+        <v>1330.08024626</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1330.08024626</v>
+      </c>
+      <c r="J22" s="16">
         <v>70</v>
       </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26">
         <v>2022</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1217,16 +1372,22 @@
         <v>819447</v>
       </c>
       <c r="H23" s="13">
+        <v>1335.7304165099999</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1335.7304165099999</v>
+      </c>
+      <c r="J23" s="13">
         <v>70</v>
       </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <v>2022</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1242,16 +1403,22 @@
         <v>315133</v>
       </c>
       <c r="H24" s="16">
+        <v>1386.0361666299998</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1386.0361666299998</v>
+      </c>
+      <c r="J24" s="16">
         <v>70</v>
       </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26">
         <v>2022</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1267,16 +1434,22 @@
         <v>312650</v>
       </c>
       <c r="H25" s="13">
+        <v>1441.6811297399997</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1441.6811297399997</v>
+      </c>
+      <c r="J25" s="13">
         <v>70</v>
       </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
         <v>2022</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1292,16 +1465,22 @@
         <v>309489</v>
       </c>
       <c r="H26" s="16">
+        <v>1438.4109749500001</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1438.4109749500001</v>
+      </c>
+      <c r="J26" s="16">
         <v>70</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26">
         <v>2022</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1317,16 +1496,22 @@
         <v>589649</v>
       </c>
       <c r="H27" s="13">
+        <v>1491.3051021999997</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1491.3051021999997</v>
+      </c>
+      <c r="J27" s="13">
         <v>79</v>
       </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="30">
         <v>2022</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1342,16 +1527,22 @@
         <v>593812</v>
       </c>
       <c r="H28" s="16">
+        <v>1507.3834003300001</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1507.3834003300001</v>
+      </c>
+      <c r="J28" s="16">
         <v>73</v>
       </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26">
         <v>2022</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1367,16 +1558,22 @@
         <v>589839</v>
       </c>
       <c r="H29" s="13">
+        <v>1474.5192659299998</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1474.5192659299998</v>
+      </c>
+      <c r="J29" s="13">
         <v>68</v>
       </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30">
         <v>2022</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1392,16 +1589,22 @@
         <v>1012442</v>
       </c>
       <c r="H30" s="16">
+        <v>1501.6799326999999</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1501.6799326999999</v>
+      </c>
+      <c r="J30" s="16">
         <v>69</v>
       </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26">
         <v>2022</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1417,16 +1620,22 @@
         <v>1023767</v>
       </c>
       <c r="H31" s="13">
+        <v>1565.5350600199999</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1565.5350600199999</v>
+      </c>
+      <c r="J31" s="13">
         <v>69</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="28">
         <v>2022</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1442,16 +1651,22 @@
         <v>1020456</v>
       </c>
       <c r="H32" s="19">
+        <v>1697.2158762199999</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1697.2158762199999</v>
+      </c>
+      <c r="J32" s="19">
         <v>69</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26">
         <v>2021</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1467,16 +1682,22 @@
         <v>781462</v>
       </c>
       <c r="H33" s="13">
+        <v>1556.2466178200002</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1556.2466178200002</v>
+      </c>
+      <c r="J33" s="13">
         <v>68</v>
       </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="30">
         <v>2021</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1492,16 +1713,22 @@
         <v>779878</v>
       </c>
       <c r="H34" s="16">
+        <v>1660.91569716</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1660.91569716</v>
+      </c>
+      <c r="J34" s="16">
         <v>68</v>
       </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
         <v>2021</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1517,16 +1744,22 @@
         <v>779241</v>
       </c>
       <c r="H35" s="13">
+        <v>1758.2151298900001</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1758.2151298900001</v>
+      </c>
+      <c r="J35" s="13">
         <v>68</v>
       </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="30">
         <v>2021</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D36" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1542,16 +1775,22 @@
         <v>995359</v>
       </c>
       <c r="H36" s="16">
+        <v>1713.32978183</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1713.32978183</v>
+      </c>
+      <c r="J36" s="16">
         <v>68</v>
       </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
         <v>2021</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1567,16 +1806,22 @@
         <v>1003592</v>
       </c>
       <c r="H37" s="13">
+        <v>1780.6747097499999</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1780.6747097499999</v>
+      </c>
+      <c r="J37" s="13">
         <v>67</v>
       </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="30">
         <v>2021</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1592,16 +1837,22 @@
         <v>1012751</v>
       </c>
       <c r="H38" s="16">
+        <v>1713.8079147400001</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1713.8079147400001</v>
+      </c>
+      <c r="J38" s="16">
         <v>67</v>
       </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="26">
         <v>2021</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1617,16 +1868,22 @@
         <v>727043</v>
       </c>
       <c r="H39" s="13">
+        <v>1724.2317853400002</v>
+      </c>
+      <c r="I39" s="13">
+        <v>1724.2317853400002</v>
+      </c>
+      <c r="J39" s="13">
         <v>66</v>
       </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="30">
         <v>2021</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1642,16 +1899,22 @@
         <v>719188</v>
       </c>
       <c r="H40" s="16">
+        <v>1732.9028044000002</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1732.9028044000002</v>
+      </c>
+      <c r="J40" s="16">
         <v>66</v>
       </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="26">
         <v>2021</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1667,16 +1930,22 @@
         <v>724885</v>
       </c>
       <c r="H41" s="13">
+        <v>1770.3710159100001</v>
+      </c>
+      <c r="I41" s="13">
+        <v>1770.3710159100001</v>
+      </c>
+      <c r="J41" s="13">
         <v>66</v>
       </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="30">
         <v>2021</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1692,16 +1961,22 @@
         <v>741054</v>
       </c>
       <c r="H42" s="16">
+        <v>1938.47881542</v>
+      </c>
+      <c r="I42" s="16">
+        <v>1938.47881542</v>
+      </c>
+      <c r="J42" s="16">
         <v>66</v>
       </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="26">
         <v>2021</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1717,16 +1992,22 @@
         <v>743315</v>
       </c>
       <c r="H43" s="13">
+        <v>1974.6984750499998</v>
+      </c>
+      <c r="I43" s="13">
+        <v>1974.6984750499998</v>
+      </c>
+      <c r="J43" s="13">
         <v>66</v>
       </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="28">
         <v>2021</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1742,16 +2023,22 @@
         <v>745742</v>
       </c>
       <c r="H44" s="19">
+        <v>2068.09179047</v>
+      </c>
+      <c r="I44" s="19">
+        <v>2068.09179047</v>
+      </c>
+      <c r="J44" s="19">
         <v>66</v>
       </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="26">
         <v>2020</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D45" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1767,16 +2054,22 @@
         <v>10</v>
       </c>
       <c r="H45" s="13">
+        <v>1965.2048649999999</v>
+      </c>
+      <c r="I45" s="13">
+        <v>1965.2048649999999</v>
+      </c>
+      <c r="J45" s="13">
         <v>67</v>
       </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30">
         <v>2020</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1792,16 +2085,22 @@
         <v>10</v>
       </c>
       <c r="H46" s="16">
+        <v>2036.6670280000001</v>
+      </c>
+      <c r="I46" s="16">
+        <v>2036.6670280000001</v>
+      </c>
+      <c r="J46" s="16">
         <v>66</v>
       </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="26">
         <v>2020</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D47" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1817,16 +2116,22 @@
         <v>10</v>
       </c>
       <c r="H47" s="13">
+        <v>2086.6351749999999</v>
+      </c>
+      <c r="I47" s="13">
+        <v>2086.6351749999999</v>
+      </c>
+      <c r="J47" s="13">
         <v>66</v>
       </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="30">
         <v>2020</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1842,16 +2147,22 @@
         <v>10</v>
       </c>
       <c r="H48" s="16">
+        <v>2282.45118</v>
+      </c>
+      <c r="I48" s="16">
+        <v>2282.45118</v>
+      </c>
+      <c r="J48" s="16">
         <v>65</v>
       </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="26">
         <v>2020</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1867,16 +2178,22 @@
         <v>10</v>
       </c>
       <c r="H49" s="13">
+        <v>2326.1801529999998</v>
+      </c>
+      <c r="I49" s="13">
+        <v>2326.1801529999998</v>
+      </c>
+      <c r="J49" s="13">
         <v>65</v>
       </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="30">
         <v>2020</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1892,16 +2209,22 @@
         <v>10</v>
       </c>
       <c r="H50" s="16">
+        <v>2496.5246149999998</v>
+      </c>
+      <c r="I50" s="16">
+        <v>2496.5246149999998</v>
+      </c>
+      <c r="J50" s="16">
         <v>64</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="26">
         <v>2020</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1917,16 +2240,22 @@
         <v>10</v>
       </c>
       <c r="H51" s="13">
+        <v>2331.4578099999999</v>
+      </c>
+      <c r="I51" s="13">
+        <v>2331.4578099999999</v>
+      </c>
+      <c r="J51" s="13">
         <v>64</v>
       </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="30">
         <v>2020</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1942,16 +2271,22 @@
         <v>9</v>
       </c>
       <c r="H52" s="16">
+        <v>2279.2031200000001</v>
+      </c>
+      <c r="I52" s="16">
+        <v>2279.2031200000001</v>
+      </c>
+      <c r="J52" s="16">
         <v>64</v>
       </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="26">
         <v>2020</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D53" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1967,16 +2302,22 @@
         <v>10</v>
       </c>
       <c r="H53" s="13">
+        <v>2221.96333</v>
+      </c>
+      <c r="I53" s="13">
+        <v>2221.96333</v>
+      </c>
+      <c r="J53" s="13">
         <v>64</v>
       </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="30">
         <v>2020</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -1992,16 +2333,22 @@
         <v>10</v>
       </c>
       <c r="H54" s="16">
+        <v>2158.6589680000002</v>
+      </c>
+      <c r="I54" s="16">
+        <v>2158.6589680000002</v>
+      </c>
+      <c r="J54" s="16">
         <v>64</v>
       </c>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="26">
         <v>2020</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2017,16 +2364,22 @@
         <v>9</v>
       </c>
       <c r="H55" s="13">
+        <v>2090.6967549999999</v>
+      </c>
+      <c r="I55" s="13">
+        <v>2090.6967549999999</v>
+      </c>
+      <c r="J55" s="13">
         <v>63</v>
       </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="28">
         <v>2020</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D56" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2042,16 +2395,22 @@
         <v>10</v>
       </c>
       <c r="H56" s="19">
+        <v>2128.7758960000001</v>
+      </c>
+      <c r="I56" s="19">
+        <v>2128.7758960000001</v>
+      </c>
+      <c r="J56" s="19">
         <v>63</v>
       </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="26">
         <v>2019</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2067,16 +2426,22 @@
         <v>1</v>
       </c>
       <c r="H57" s="13">
+        <v>2144.0828999999999</v>
+      </c>
+      <c r="I57" s="13">
+        <v>2144.0828999999999</v>
+      </c>
+      <c r="J57" s="13">
         <v>63</v>
       </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="30">
         <v>2019</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2092,16 +2457,22 @@
         <v>1</v>
       </c>
       <c r="H58" s="16">
+        <v>2247.9511990000001</v>
+      </c>
+      <c r="I58" s="16">
+        <v>2247.9511990000001</v>
+      </c>
+      <c r="J58" s="16">
         <v>63</v>
       </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="26">
         <v>2019</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2117,16 +2488,22 @@
         <v>1</v>
       </c>
       <c r="H59" s="13">
+        <v>2269.6757680000001</v>
+      </c>
+      <c r="I59" s="13">
+        <v>2269.6757680000001</v>
+      </c>
+      <c r="J59" s="13">
         <v>63</v>
       </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="30">
         <v>2019</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D60" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2142,16 +2519,22 @@
         <v>0</v>
       </c>
       <c r="H60" s="16">
+        <v>2190.3553080000002</v>
+      </c>
+      <c r="I60" s="16">
+        <v>2190.3553080000002</v>
+      </c>
+      <c r="J60" s="16">
         <v>63</v>
       </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="26">
         <v>2019</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2167,16 +2550,22 @@
         <v>0</v>
       </c>
       <c r="H61" s="13">
+        <v>2212.2994060000001</v>
+      </c>
+      <c r="I61" s="13">
+        <v>2212.2994060000001</v>
+      </c>
+      <c r="J61" s="13">
         <v>63</v>
       </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="30">
         <v>2019</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2192,16 +2581,22 @@
         <v>0</v>
       </c>
       <c r="H62" s="16">
+        <v>2400.2908379999999</v>
+      </c>
+      <c r="I62" s="16">
+        <v>2400.2908379999999</v>
+      </c>
+      <c r="J62" s="16">
         <v>63</v>
       </c>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="26">
         <v>2019</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D63" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2217,16 +2612,22 @@
         <v>0</v>
       </c>
       <c r="H63" s="13">
+        <v>2424.716461</v>
+      </c>
+      <c r="I63" s="13">
+        <v>2424.716461</v>
+      </c>
+      <c r="J63" s="13">
         <v>62</v>
       </c>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="30">
         <v>2019</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2242,16 +2643,22 @@
         <v>0</v>
       </c>
       <c r="H64" s="16">
+        <v>2404.4084229999999</v>
+      </c>
+      <c r="I64" s="16">
+        <v>2404.4084229999999</v>
+      </c>
+      <c r="J64" s="16">
         <v>61</v>
       </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="26">
         <v>2019</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2267,16 +2674,22 @@
         <v>0</v>
       </c>
       <c r="H65" s="13">
+        <v>2459.8690190000002</v>
+      </c>
+      <c r="I65" s="13">
+        <v>2459.8690190000002</v>
+      </c>
+      <c r="J65" s="13">
         <v>61</v>
       </c>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="30">
         <v>2019</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2292,16 +2705,22 @@
         <v>0</v>
       </c>
       <c r="H66" s="16">
+        <v>2465.7201359999999</v>
+      </c>
+      <c r="I66" s="16">
+        <v>2465.7201359999999</v>
+      </c>
+      <c r="J66" s="16">
         <v>61</v>
       </c>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26">
         <v>2019</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2317,16 +2736,22 @@
         <v>0</v>
       </c>
       <c r="H67" s="13">
+        <v>2478.389741</v>
+      </c>
+      <c r="I67" s="13">
+        <v>2478.389741</v>
+      </c>
+      <c r="J67" s="13">
         <v>61</v>
       </c>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="28">
         <v>2019</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68" s="17">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2342,16 +2767,22 @@
         <v>0</v>
       </c>
       <c r="H68" s="19">
+        <v>2480.7648490000001</v>
+      </c>
+      <c r="I68" s="19">
+        <v>2480.7648490000001</v>
+      </c>
+      <c r="J68" s="19">
         <v>61</v>
       </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="26">
         <v>2018</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D69" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2367,16 +2798,22 @@
         <v>0</v>
       </c>
       <c r="H69" s="13">
+        <v>2555.713522</v>
+      </c>
+      <c r="I69" s="13">
+        <v>2555.713522</v>
+      </c>
+      <c r="J69" s="13">
         <v>61</v>
       </c>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="30">
         <v>2018</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D70" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2392,16 +2829,22 @@
         <v>0</v>
       </c>
       <c r="H70" s="16">
+        <v>2686.019088</v>
+      </c>
+      <c r="I70" s="16">
+        <v>2686.019088</v>
+      </c>
+      <c r="J70" s="16">
         <v>61</v>
       </c>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="26">
         <v>2018</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D71" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2417,16 +2860,22 @@
         <v>0</v>
       </c>
       <c r="H71" s="13">
+        <v>2672.5398700000001</v>
+      </c>
+      <c r="I71" s="13">
+        <v>2672.5398700000001</v>
+      </c>
+      <c r="J71" s="13">
         <v>60</v>
       </c>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="30">
         <v>2018</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D72" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2442,16 +2891,22 @@
         <v>0</v>
       </c>
       <c r="H72" s="16">
+        <v>2697.6243399999998</v>
+      </c>
+      <c r="I72" s="16">
+        <v>2697.6243399999998</v>
+      </c>
+      <c r="J72" s="16">
         <v>60</v>
       </c>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="26">
         <v>2018</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D73" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2467,16 +2922,22 @@
         <v>0</v>
       </c>
       <c r="H73" s="13">
+        <v>2761.1283659999999</v>
+      </c>
+      <c r="I73" s="13">
+        <v>2761.1283659999999</v>
+      </c>
+      <c r="J73" s="13">
         <v>60</v>
       </c>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="30">
         <v>2018</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D74" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2492,16 +2953,22 @@
         <v>0</v>
       </c>
       <c r="H74" s="16">
+        <v>2783.9435899999999</v>
+      </c>
+      <c r="I74" s="16">
+        <v>2783.9435899999999</v>
+      </c>
+      <c r="J74" s="16">
         <v>60</v>
       </c>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="26">
         <v>2018</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D75" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2517,16 +2984,22 @@
         <v>0</v>
       </c>
       <c r="H75" s="13">
+        <v>3111.2971470000002</v>
+      </c>
+      <c r="I75" s="13">
+        <v>3111.2971470000002</v>
+      </c>
+      <c r="J75" s="13">
         <v>60</v>
       </c>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="30">
         <v>2018</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2542,16 +3015,22 @@
         <v>0</v>
       </c>
       <c r="H76" s="16">
+        <v>3169.1141630000002</v>
+      </c>
+      <c r="I76" s="16">
+        <v>3169.1141630000002</v>
+      </c>
+      <c r="J76" s="16">
         <v>60</v>
       </c>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="26">
         <v>2018</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D77" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2567,16 +3046,22 @@
         <v>0</v>
       </c>
       <c r="H77" s="13">
+        <v>3186.6314640000001</v>
+      </c>
+      <c r="I77" s="13">
+        <v>3186.6314640000001</v>
+      </c>
+      <c r="J77" s="13">
         <v>60</v>
       </c>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="30">
         <v>2018</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2592,16 +3077,22 @@
         <v>0</v>
       </c>
       <c r="H78" s="16">
+        <v>3053.463111</v>
+      </c>
+      <c r="I78" s="16">
+        <v>3053.463111</v>
+      </c>
+      <c r="J78" s="16">
         <v>60</v>
       </c>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="26">
         <v>2018</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="11">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2617,16 +3108,22 @@
         <v>0</v>
       </c>
       <c r="H79" s="13">
+        <v>3207.3163199999999</v>
+      </c>
+      <c r="I79" s="13">
+        <v>3207.3163199999999</v>
+      </c>
+      <c r="J79" s="13">
         <v>59</v>
       </c>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="30">
         <v>2018</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Residencial]:[Sin especificar]])</f>
@@ -2642,27 +3139,34 @@
         <v>0</v>
       </c>
       <c r="H80" s="16">
+        <v>3245.053461</v>
+      </c>
+      <c r="I80" s="16">
+        <v>3245.053461</v>
+      </c>
+      <c r="J80" s="16">
         <v>60</v>
       </c>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="H83" s="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J83" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:H4"/>
+  <mergeCells count="2">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
